--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2802,28 +2802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.1358924685251</v>
+        <v>260.2087528816782</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.5138368374251</v>
+        <v>356.0290952927008</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.5925162691877</v>
+        <v>322.0501781279383</v>
       </c>
       <c r="AD2" t="n">
-        <v>229135.8924685251</v>
+        <v>260208.7528816782</v>
       </c>
       <c r="AE2" t="n">
-        <v>313513.8368374251</v>
+        <v>356029.0952927009</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768486531319331e-06</v>
+        <v>6.370813459180846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.376388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>283592.5162691877</v>
+        <v>322050.1781279383</v>
       </c>
     </row>
     <row r="3">
@@ -2908,28 +2908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.3073744467261</v>
+        <v>109.0510020013159</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.8260455643668</v>
+        <v>149.2083919288024</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.2945773561552</v>
+        <v>134.9681524184514</v>
       </c>
       <c r="AD3" t="n">
-        <v>88307.3744467261</v>
+        <v>109051.0020013159</v>
       </c>
       <c r="AE3" t="n">
-        <v>120826.0455643668</v>
+        <v>149208.3919288024</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.771517471517861e-06</v>
+        <v>1.144758626257345e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>109294.5773561552</v>
+        <v>134968.1524184514</v>
       </c>
     </row>
     <row r="4">
@@ -3014,28 +3014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.99777752804847</v>
+        <v>85.49760258720079</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.6152678822661</v>
+        <v>116.9815917477803</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.82181073704143</v>
+        <v>105.8170328160977</v>
       </c>
       <c r="AD4" t="n">
-        <v>74997.77752804848</v>
+        <v>85497.60258720079</v>
       </c>
       <c r="AE4" t="n">
-        <v>102615.2678822661</v>
+        <v>116981.5917477803</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.817362932304029e-06</v>
+        <v>1.321563990491115e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.591666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92821.81073704144</v>
+        <v>105817.0328160977</v>
       </c>
     </row>
     <row r="5">
@@ -3120,28 +3120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.53213506458519</v>
+        <v>79.86136792314528</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.1369347366318</v>
+        <v>109.2698468272991</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.05719921091757</v>
+        <v>98.84128600732281</v>
       </c>
       <c r="AD5" t="n">
-        <v>69532.13506458519</v>
+        <v>79861.36792314528</v>
       </c>
       <c r="AE5" t="n">
-        <v>95136.9347366318</v>
+        <v>109269.8468272991</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.349841092698716e-06</v>
+        <v>1.411582065460185e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.426388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>86057.19921091758</v>
+        <v>98841.28600732281</v>
       </c>
     </row>
     <row r="6">
@@ -3226,28 +3226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.03783362361058</v>
+        <v>76.36706648217069</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.35587734739306</v>
+        <v>104.4887894380604</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.73243922865008</v>
+        <v>94.51652602505533</v>
       </c>
       <c r="AD6" t="n">
-        <v>66037.83362361058</v>
+        <v>76367.06648217069</v>
       </c>
       <c r="AE6" t="n">
-        <v>90355.87734739306</v>
+        <v>104488.7894380604</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.690918884206326e-06</v>
+        <v>1.469242958412975e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.331944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>81732.43922865008</v>
+        <v>94516.52602505533</v>
       </c>
     </row>
     <row r="7">
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.46740317385596</v>
+        <v>73.79663603241606</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.83890100665242</v>
+        <v>100.9718130973198</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.55111817376132</v>
+        <v>91.33520497016656</v>
       </c>
       <c r="AD7" t="n">
-        <v>63467.40317385596</v>
+        <v>73796.63603241606</v>
       </c>
       <c r="AE7" t="n">
-        <v>86838.90100665242</v>
+        <v>100971.8130973198</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.917769168977215e-06</v>
+        <v>1.507593124598428e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.272222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>78551.11817376132</v>
+        <v>91335.20497016655</v>
       </c>
     </row>
     <row r="8">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.62915811118117</v>
+        <v>71.95839096974127</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.32373301425346</v>
+        <v>98.45664510492081</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.27599428449568</v>
+        <v>89.06008108090091</v>
       </c>
       <c r="AD8" t="n">
-        <v>61629.15811118117</v>
+        <v>71958.39096974127</v>
       </c>
       <c r="AE8" t="n">
-        <v>84323.73301425346</v>
+        <v>98456.64510492081</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073573737552973e-06</v>
+        <v>1.533932659959241e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>76275.99428449568</v>
+        <v>89060.08108090091</v>
       </c>
     </row>
     <row r="9">
@@ -3544,28 +3544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.76107747515055</v>
+        <v>72.09031033371066</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.50423090790788</v>
+        <v>98.63714299857523</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.43926571251015</v>
+        <v>89.22335250891538</v>
       </c>
       <c r="AD9" t="n">
-        <v>61761.07747515055</v>
+        <v>72090.31033371066</v>
       </c>
       <c r="AE9" t="n">
-        <v>84504.23090790788</v>
+        <v>98637.14299857523</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.068176013735276e-06</v>
+        <v>1.533020147966404e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.234722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>76439.26571251015</v>
+        <v>89223.35250891538</v>
       </c>
     </row>
   </sheetData>
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3337805555261</v>
+        <v>171.4296648972255</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.0615549311814</v>
+        <v>234.5576304553271</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.299890741326</v>
+        <v>212.1717794084403</v>
       </c>
       <c r="AD2" t="n">
-        <v>151333.7805555261</v>
+        <v>171429.6648972255</v>
       </c>
       <c r="AE2" t="n">
-        <v>207061.5549311814</v>
+        <v>234557.6304553271</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898110196785304e-06</v>
+        <v>8.48250319245404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.279166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>187299.890741326</v>
+        <v>212171.7794084403</v>
       </c>
     </row>
     <row r="3">
@@ -3947,28 +3947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.14601970888853</v>
+        <v>94.24181454203689</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4498552571891</v>
+        <v>128.9458083117864</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.76762345723452</v>
+        <v>116.6394013431223</v>
       </c>
       <c r="AD3" t="n">
-        <v>74146.01970888853</v>
+        <v>94241.8145420369</v>
       </c>
       <c r="AE3" t="n">
-        <v>101449.8552571891</v>
+        <v>128945.8083117864</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.672086149678781e-06</v>
+        <v>1.328644980264931e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.731944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>91767.62345723453</v>
+        <v>116639.4013431223</v>
       </c>
     </row>
     <row r="4">
@@ -4053,28 +4053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.05270394367663</v>
+        <v>75.05802044151604</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.00797945845395</v>
+        <v>102.6976948942022</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.51318282244431</v>
+        <v>92.89637103064535</v>
       </c>
       <c r="AD4" t="n">
-        <v>65052.70394367663</v>
+        <v>75058.02044151604</v>
       </c>
       <c r="AE4" t="n">
-        <v>89007.97945845395</v>
+        <v>102697.6948942022</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.608214370983292e-06</v>
+        <v>1.490762823815561e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.434722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>80513.1828224443</v>
+        <v>92896.37103064536</v>
       </c>
     </row>
     <row r="5">
@@ -4159,28 +4159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.62183033159112</v>
+        <v>70.62714682943054</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.94546270605386</v>
+        <v>96.63517814180209</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.02926416009565</v>
+        <v>87.41245236829671</v>
       </c>
       <c r="AD5" t="n">
-        <v>60621.83033159112</v>
+        <v>70627.14682943054</v>
       </c>
       <c r="AE5" t="n">
-        <v>82945.46270605386</v>
+        <v>96635.17814180208</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.100198572410459e-06</v>
+        <v>1.575964205401093e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.302777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>75029.26416009566</v>
+        <v>87412.45236829671</v>
       </c>
     </row>
     <row r="6">
@@ -4265,28 +4265,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.14494510203367</v>
+        <v>68.15026159987308</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.55647906251077</v>
+        <v>93.24619449825899</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.96372035902283</v>
+        <v>84.34690856722388</v>
       </c>
       <c r="AD6" t="n">
-        <v>58144.94510203366</v>
+        <v>68150.26159987308</v>
       </c>
       <c r="AE6" t="n">
-        <v>79556.47906251077</v>
+        <v>93246.19449825899</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.362489536238806e-06</v>
+        <v>1.621387518651293e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.238888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>71963.72035902283</v>
+        <v>84346.90856722387</v>
       </c>
     </row>
     <row r="7">
@@ -4371,28 +4371,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.21391352214895</v>
+        <v>68.21923001998836</v>
       </c>
       <c r="AB7" t="n">
-        <v>79.65084469758442</v>
+        <v>93.34056013333262</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.04907987032807</v>
+        <v>84.43226807852913</v>
       </c>
       <c r="AD7" t="n">
-        <v>58213.91352214895</v>
+        <v>68219.23001998836</v>
       </c>
       <c r="AE7" t="n">
-        <v>79650.84469758441</v>
+        <v>93340.56013333262</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.348454404112202e-06</v>
+        <v>1.618956927090725e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.241666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>72049.07987032807</v>
+        <v>84432.26807852913</v>
       </c>
     </row>
   </sheetData>
@@ -4668,28 +4668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.97744837467999</v>
+        <v>76.12283874553886</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.3273026507115</v>
+        <v>104.1546262742336</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.7564162223145</v>
+        <v>94.21425492458309</v>
       </c>
       <c r="AD2" t="n">
-        <v>57977.44837468</v>
+        <v>76122.83874553886</v>
       </c>
       <c r="AE2" t="n">
-        <v>79327.3026507115</v>
+        <v>104154.6262742336</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575581256774105e-06</v>
+        <v>1.622684511474219e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.727777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>71756.4162223145</v>
+        <v>94214.25492458309</v>
       </c>
     </row>
     <row r="3">
@@ -4774,28 +4774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.23347863593307</v>
+        <v>58.26359290262774</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.36341749744444</v>
+        <v>79.71881821765506</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.93434747665317</v>
+        <v>72.11056609304464</v>
       </c>
       <c r="AD3" t="n">
-        <v>49233.47863593308</v>
+        <v>58263.59290262774</v>
       </c>
       <c r="AE3" t="n">
-        <v>67363.41749744445</v>
+        <v>79718.81821765506</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.974308338675875e-06</v>
+        <v>1.887353774538882e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.344444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>60934.34747665317</v>
+        <v>72110.56609304463</v>
       </c>
     </row>
   </sheetData>
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.04397458924831</v>
+        <v>95.54069487677167</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.7291620252129</v>
+        <v>130.7229936883258</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4932560354738</v>
+        <v>118.2469746416207</v>
       </c>
       <c r="AD2" t="n">
-        <v>86043.9745892483</v>
+        <v>95540.69487677167</v>
       </c>
       <c r="AE2" t="n">
-        <v>117729.1620252129</v>
+        <v>130722.9936883258</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.061124945999213e-06</v>
+        <v>1.286383615335335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.169444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>106493.2560354738</v>
+        <v>118246.9746416207</v>
       </c>
     </row>
     <row r="3">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.65866046546147</v>
+        <v>65.07003989841321</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.15463473561755</v>
+        <v>89.03169927653289</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.88654328016872</v>
+        <v>80.53463885437678</v>
       </c>
       <c r="AD3" t="n">
-        <v>55658.66046546147</v>
+        <v>65070.03989841322</v>
       </c>
       <c r="AE3" t="n">
-        <v>76154.63473561755</v>
+        <v>89031.69927653289</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.349586726923666e-06</v>
+        <v>1.703291652201372e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.393055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>68886.54328016873</v>
+        <v>80534.63885437678</v>
       </c>
     </row>
     <row r="4">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.24120043397062</v>
+        <v>61.65257986692237</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.47871515283819</v>
+        <v>84.35577969375352</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.65688689967398</v>
+        <v>76.30498247388203</v>
       </c>
       <c r="AD4" t="n">
-        <v>52241.20043397062</v>
+        <v>61652.57986692237</v>
       </c>
       <c r="AE4" t="n">
-        <v>71478.71515283819</v>
+        <v>84355.77969375352</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.837888568386675e-06</v>
+        <v>1.792249643031429e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.275</v>
       </c>
       <c r="AH4" t="n">
-        <v>64656.88689967398</v>
+        <v>76304.98247388203</v>
       </c>
     </row>
   </sheetData>
@@ -5580,28 +5580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.57065748297779</v>
+        <v>56.28805610402442</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.0882722374803</v>
+        <v>77.01580161527485</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.87633888711284</v>
+        <v>69.6655216014871</v>
       </c>
       <c r="AD2" t="n">
-        <v>47570.6574829778</v>
+        <v>56288.05610402442</v>
       </c>
       <c r="AE2" t="n">
-        <v>65088.27223748029</v>
+        <v>77015.80161527485</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800012269150273e-06</v>
+        <v>1.920486647899825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58876.33888711284</v>
+        <v>69665.5216014871</v>
       </c>
     </row>
     <row r="3">
@@ -5686,28 +5686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.19546834238221</v>
+        <v>55.91286696342884</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.57492190314098</v>
+        <v>76.50245128093553</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.41198198819099</v>
+        <v>69.20116470256525</v>
       </c>
       <c r="AD3" t="n">
-        <v>47195.46834238221</v>
+        <v>55912.86696342884</v>
       </c>
       <c r="AE3" t="n">
-        <v>64574.92190314097</v>
+        <v>76502.45128093554</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.910022579454835e-06</v>
+        <v>1.942045124182176e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.451388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>58411.98198819099</v>
+        <v>69201.16470256525</v>
       </c>
     </row>
   </sheetData>
@@ -5983,28 +5983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.7351593286872</v>
+        <v>185.1719131632907</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.3979125957159</v>
+        <v>253.3603807981535</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.8862521656028</v>
+        <v>229.1800216483792</v>
       </c>
       <c r="AD2" t="n">
-        <v>164735.1593286872</v>
+        <v>185171.9131632907</v>
       </c>
       <c r="AE2" t="n">
-        <v>225397.9125957159</v>
+        <v>253360.3807981535</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.600457510359713e-06</v>
+        <v>7.915000691506856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.515277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>203886.2521656028</v>
+        <v>229180.0216483792</v>
       </c>
     </row>
     <row r="3">
@@ -6089,28 +6089,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.79243843208346</v>
+        <v>98.05851055754373</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.4390462229024</v>
+        <v>134.1679801809447</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.28065303955523</v>
+        <v>121.363176458454</v>
       </c>
       <c r="AD3" t="n">
-        <v>77792.43843208345</v>
+        <v>98058.51055754373</v>
       </c>
       <c r="AE3" t="n">
-        <v>106439.0462229024</v>
+        <v>134167.9801809447</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.40619817662591e-06</v>
+        <v>1.274222478034524e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.804166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96280.65303955524</v>
+        <v>121363.1764584541</v>
       </c>
     </row>
     <row r="4">
@@ -6195,28 +6195,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.54716894762461</v>
+        <v>77.63762409161997</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.42101652488303</v>
+        <v>106.2272224123538</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.60048442148211</v>
+        <v>96.08904539618868</v>
       </c>
       <c r="AD4" t="n">
-        <v>67547.16894762461</v>
+        <v>77637.62409161997</v>
       </c>
       <c r="AE4" t="n">
-        <v>92421.01652488303</v>
+        <v>106227.2224123538</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.398078352461592e-06</v>
+        <v>1.444873598275334e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.473611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>83600.48442148211</v>
+        <v>96089.04539618868</v>
       </c>
     </row>
     <row r="5">
@@ -6301,28 +6301,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.95268639673252</v>
+        <v>73.0431415407279</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.13464280449092</v>
+        <v>99.94084869196163</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.91407338598131</v>
+        <v>90.40263436068787</v>
       </c>
       <c r="AD5" t="n">
-        <v>62952.68639673252</v>
+        <v>73043.1415407279</v>
       </c>
       <c r="AE5" t="n">
-        <v>86134.64280449093</v>
+        <v>99940.84869196164</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.890279446954239e-06</v>
+        <v>1.529555871603518e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.336111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>77914.0733859813</v>
+        <v>90402.63436068787</v>
       </c>
     </row>
     <row r="6">
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.84801800084712</v>
+        <v>69.93847314484249</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.88669853693978</v>
+        <v>95.69290442441049</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.07154695729663</v>
+        <v>86.56010793200321</v>
       </c>
       <c r="AD6" t="n">
-        <v>59848.01800084712</v>
+        <v>69938.47314484249</v>
       </c>
       <c r="AE6" t="n">
-        <v>81886.69853693977</v>
+        <v>95692.90442441049</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.191044078076911e-06</v>
+        <v>1.581301861169903e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.259722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>74071.54695729664</v>
+        <v>86560.1079320032</v>
       </c>
     </row>
     <row r="7">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.99380368217783</v>
+        <v>69.0842588261732</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.71792482086097</v>
+        <v>94.52413070833171</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.01431936429583</v>
+        <v>85.5028803390024</v>
       </c>
       <c r="AD7" t="n">
-        <v>58993.80368217784</v>
+        <v>69084.2588261732</v>
       </c>
       <c r="AE7" t="n">
-        <v>80717.92482086098</v>
+        <v>94524.13070833171</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.278087845015446e-06</v>
+        <v>1.596277577692845e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.238888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>73014.31936429584</v>
+        <v>85502.8803390024</v>
       </c>
     </row>
   </sheetData>
@@ -6810,28 +6810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.98191796288411</v>
+        <v>54.68473430037689</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.91448873584829</v>
+        <v>74.82206598995955</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.9100182319516</v>
+        <v>67.68115302532392</v>
       </c>
       <c r="AD2" t="n">
-        <v>45981.91796288411</v>
+        <v>54684.73430037689</v>
       </c>
       <c r="AE2" t="n">
-        <v>62914.4887358483</v>
+        <v>74822.06598995955</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.743670694961352e-06</v>
+        <v>1.953275056488734e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.551388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>56910.0182319516</v>
+        <v>67681.15302532392</v>
       </c>
     </row>
   </sheetData>
@@ -7107,28 +7107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.2749183944283</v>
+        <v>128.9034218830579</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.5147642163527</v>
+        <v>176.3713486379406</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2452849648742</v>
+        <v>159.5387146627273</v>
       </c>
       <c r="AD2" t="n">
-        <v>109274.9183944283</v>
+        <v>128903.4218830579</v>
       </c>
       <c r="AE2" t="n">
-        <v>149514.7642163527</v>
+        <v>176371.3486379406</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.891190937856725e-06</v>
+        <v>1.04337369070794e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.665277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>135245.2849648742</v>
+        <v>159538.7146627273</v>
       </c>
     </row>
     <row r="3">
@@ -7213,28 +7213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.95837890073406</v>
+        <v>74.8579714996205</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.87891977337277</v>
+        <v>102.4239791063644</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.39644041257087</v>
+        <v>92.64877829343622</v>
       </c>
       <c r="AD3" t="n">
-        <v>64958.37890073406</v>
+        <v>74857.9714996205</v>
       </c>
       <c r="AE3" t="n">
-        <v>88878.91977337278</v>
+        <v>102423.9791063644</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.411055811666533e-06</v>
+        <v>1.489660484194345e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.568055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>80396.44041257087</v>
+        <v>92648.77829343622</v>
       </c>
     </row>
     <row r="4">
@@ -7319,28 +7319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.59288713746309</v>
+        <v>67.32188753575733</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.80112900030718</v>
+        <v>92.11277655845191</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.28045984661526</v>
+        <v>83.32166244482956</v>
       </c>
       <c r="AD4" t="n">
-        <v>57592.88713746309</v>
+        <v>67321.88753575733</v>
       </c>
       <c r="AE4" t="n">
-        <v>78801.12900030719</v>
+        <v>92112.77655845191</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.330310478701189e-06</v>
+        <v>1.652467316422632e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.313888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>71280.45984661525</v>
+        <v>83321.66244482956</v>
       </c>
     </row>
     <row r="5">
@@ -7425,28 +7425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.08079514332518</v>
+        <v>64.80979554161942</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.36397390825233</v>
+        <v>88.67562146639706</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.17134201246756</v>
+        <v>80.21254461068186</v>
       </c>
       <c r="AD5" t="n">
-        <v>55080.79514332518</v>
+        <v>64809.79554161942</v>
       </c>
       <c r="AE5" t="n">
-        <v>75363.97390825233</v>
+        <v>88675.62146639706</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.626829194877624e-06</v>
+        <v>1.704982984396134e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.243055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>68171.34201246756</v>
+        <v>80212.54461068186</v>
       </c>
     </row>
     <row r="6">
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.23282981370874</v>
+        <v>64.96183021200298</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.57199445156729</v>
+        <v>88.88364200971202</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.35950936708727</v>
+        <v>80.40071196530157</v>
       </c>
       <c r="AD6" t="n">
-        <v>55232.82981370874</v>
+        <v>64961.83021200298</v>
       </c>
       <c r="AE6" t="n">
-        <v>75571.9944515673</v>
+        <v>88883.64200971201</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.626207236374893e-06</v>
+        <v>1.70487283092372e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.243055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>68359.50936708727</v>
+        <v>80400.71196530157</v>
       </c>
     </row>
   </sheetData>
@@ -7828,28 +7828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8898639729303</v>
+        <v>158.8089960145607</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.0352392760282</v>
+        <v>217.2894745054585</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8985427557111</v>
+        <v>196.5516720264127</v>
       </c>
       <c r="AD2" t="n">
-        <v>138889.8639729303</v>
+        <v>158808.9960145607</v>
       </c>
       <c r="AE2" t="n">
-        <v>190035.2392760282</v>
+        <v>217289.4745054585</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.227393915612158e-06</v>
+        <v>9.116118536950026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.047222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>171898.5427557111</v>
+        <v>196551.6720264126</v>
       </c>
     </row>
     <row r="3">
@@ -7934,28 +7934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.21075609802132</v>
+        <v>91.12979863110071</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.43369809011139</v>
+        <v>124.6878108499933</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.13476269346941</v>
+        <v>112.7877811829444</v>
       </c>
       <c r="AD3" t="n">
-        <v>71210.75609802132</v>
+        <v>91129.79863110071</v>
       </c>
       <c r="AE3" t="n">
-        <v>97433.69809011139</v>
+        <v>124687.8108499933</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.891670693305834e-06</v>
+        <v>1.376238459471938e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.680555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>88134.76269346941</v>
+        <v>112787.7811829444</v>
       </c>
     </row>
     <row r="4">
@@ -8040,28 +8040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.73733730837837</v>
+        <v>72.65427765618331</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.83999268127367</v>
+        <v>99.4087879696642</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.64754425697974</v>
+        <v>89.92135276697439</v>
       </c>
       <c r="AD4" t="n">
-        <v>62737.33730837837</v>
+        <v>72654.27765618332</v>
       </c>
       <c r="AE4" t="n">
-        <v>85839.99268127367</v>
+        <v>99408.7879696642</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.820236965037477e-06</v>
+        <v>1.538172309095132e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.398611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>77647.54425697975</v>
+        <v>89921.35276697439</v>
       </c>
     </row>
     <row r="5">
@@ -8146,28 +8146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.31628876377157</v>
+        <v>68.23322911157649</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.79091901964932</v>
+        <v>93.35971430803986</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.17578569569071</v>
+        <v>84.44959420568534</v>
       </c>
       <c r="AD5" t="n">
-        <v>58316.28876377158</v>
+        <v>68233.2291115765</v>
       </c>
       <c r="AE5" t="n">
-        <v>79790.91901964933</v>
+        <v>93359.71430803985</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.325121070782949e-06</v>
+        <v>1.626219688529302e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.269444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>72175.78569569071</v>
+        <v>84449.59420568534</v>
       </c>
     </row>
     <row r="6">
@@ -8252,28 +8252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.05559288161456</v>
+        <v>66.97253322941948</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.06597929570596</v>
+        <v>91.63477458409648</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.61547179803182</v>
+        <v>82.88928030802647</v>
       </c>
       <c r="AD6" t="n">
-        <v>57055.59288161456</v>
+        <v>66972.53322941948</v>
       </c>
       <c r="AE6" t="n">
-        <v>78065.97929570595</v>
+        <v>91634.77458409648</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4465431082842e-06</v>
+        <v>1.647394631621949e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.240277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>70615.47179803182</v>
+        <v>82889.28030802647</v>
       </c>
     </row>
   </sheetData>
@@ -8549,28 +8549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.4524582980764</v>
+        <v>229.1273984543259</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.2138497167159</v>
+        <v>313.5022149524683</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.9934401999886</v>
+        <v>283.5820035606197</v>
       </c>
       <c r="AD2" t="n">
-        <v>208452.4582980764</v>
+        <v>229127.3984543259</v>
       </c>
       <c r="AE2" t="n">
-        <v>285213.8497167159</v>
+        <v>313502.2149524682</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.034040011025165e-06</v>
+        <v>6.857600657179061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>257993.4401999887</v>
+        <v>283582.0035606197</v>
       </c>
     </row>
     <row r="3">
@@ -8655,28 +8655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.82545108725908</v>
+        <v>105.4149608803859</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.0619244123291</v>
+        <v>144.2334000563354</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.9851372403805</v>
+        <v>130.4679667878462</v>
       </c>
       <c r="AD3" t="n">
-        <v>84825.45108725908</v>
+        <v>105414.9608803859</v>
       </c>
       <c r="AE3" t="n">
-        <v>116061.9244123291</v>
+        <v>144233.4000563354</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.963582718699985e-06</v>
+        <v>1.183762910074415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>104985.1372403805</v>
+        <v>130467.9667878462</v>
       </c>
     </row>
     <row r="4">
@@ -8761,28 +8761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.31461181462168</v>
+        <v>82.73737799304254</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.94404218024049</v>
+        <v>113.20493068554</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.50096166341834</v>
+        <v>102.4008109850594</v>
       </c>
       <c r="AD4" t="n">
-        <v>72314.61181462169</v>
+        <v>82737.37799304254</v>
       </c>
       <c r="AE4" t="n">
-        <v>98944.04218024049</v>
+        <v>113204.9306855401</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.016171148653622e-06</v>
+        <v>1.362695966991587e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.547222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>89500.96166341833</v>
+        <v>102400.8109850594</v>
       </c>
     </row>
     <row r="5">
@@ -8867,28 +8867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.38896744067708</v>
+        <v>77.64114141850574</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.20455824371965</v>
+        <v>106.2320349741724</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.40468461487177</v>
+        <v>96.09339865386177</v>
       </c>
       <c r="AD5" t="n">
-        <v>67388.96744067708</v>
+        <v>77641.14141850574</v>
       </c>
       <c r="AE5" t="n">
-        <v>92204.55824371964</v>
+        <v>106232.0349741724</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.51084947756729e-06</v>
+        <v>1.446788004358081e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>83404.68461487177</v>
+        <v>96093.39865386178</v>
       </c>
     </row>
     <row r="6">
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.84785003002261</v>
+        <v>74.10002400785125</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.35944517939011</v>
+        <v>101.3869219098428</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.02198234124143</v>
+        <v>91.71069638023141</v>
       </c>
       <c r="AD6" t="n">
-        <v>63847.85003002261</v>
+        <v>74100.02400785124</v>
       </c>
       <c r="AE6" t="n">
-        <v>87359.44517939011</v>
+        <v>101386.9219098428</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.86141818628613e-06</v>
+        <v>1.506382361397832e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.304166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>79021.98234124143</v>
+        <v>91710.69638023141</v>
       </c>
     </row>
     <row r="7">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.48754107285362</v>
+        <v>71.73971505068226</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.12996633471103</v>
+        <v>98.15744306516373</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.10072042489547</v>
+        <v>88.78943446388547</v>
       </c>
       <c r="AD7" t="n">
-        <v>61487.54107285362</v>
+        <v>71739.71505068227</v>
       </c>
       <c r="AE7" t="n">
-        <v>84129.96633471103</v>
+        <v>98157.44306516374</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.079494274805446e-06</v>
+        <v>1.543453851116771e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>76100.72042489547</v>
+        <v>88789.43446388547</v>
       </c>
     </row>
     <row r="8">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.82832269794363</v>
+        <v>71.08049667577227</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.2279946714975</v>
+        <v>97.2554714019502</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.28483167129355</v>
+        <v>87.97354571028356</v>
       </c>
       <c r="AD8" t="n">
-        <v>60828.32269794363</v>
+        <v>71080.49667577227</v>
       </c>
       <c r="AE8" t="n">
-        <v>83227.99467149749</v>
+        <v>97255.4714019502</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.133314806429228e-06</v>
+        <v>1.55260298478982e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.236111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>75284.83167129355</v>
+        <v>87973.54571028356</v>
       </c>
     </row>
   </sheetData>
@@ -9482,28 +9482,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.73543096611328</v>
+        <v>111.7811314878288</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8847078462557</v>
+        <v>152.9438755370599</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.7750094132485</v>
+        <v>138.3471267139222</v>
       </c>
       <c r="AD2" t="n">
-        <v>92735.43096611329</v>
+        <v>111781.1314878288</v>
       </c>
       <c r="AE2" t="n">
-        <v>126884.7078462557</v>
+        <v>152943.8755370599</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.668260966748314e-06</v>
+        <v>1.202445249993874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.313888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>114775.0094132485</v>
+        <v>138347.1267139222</v>
       </c>
     </row>
     <row r="3">
@@ -9588,28 +9588,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.65816715276349</v>
+        <v>68.18106216789677</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.25869211407786</v>
+        <v>93.28833719425415</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.59891518251079</v>
+        <v>84.38502922346092</v>
       </c>
       <c r="AD3" t="n">
-        <v>58658.16715276349</v>
+        <v>68181.06216789677</v>
       </c>
       <c r="AE3" t="n">
-        <v>80258.69211407786</v>
+        <v>93288.33719425416</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.026715228415547e-06</v>
+        <v>1.627730363820556e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.447222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>72598.9151825108</v>
+        <v>84385.02922346092</v>
       </c>
     </row>
     <row r="4">
@@ -9694,28 +9694,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.22449394411111</v>
+        <v>62.7473889592444</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.8241007132598</v>
+        <v>85.85374579343609</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.87387075046988</v>
+        <v>77.65998479141999</v>
       </c>
       <c r="AD4" t="n">
-        <v>53224.49394411111</v>
+        <v>62747.3889592444</v>
       </c>
       <c r="AE4" t="n">
-        <v>72824.1007132598</v>
+        <v>85853.74579343609</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.775852571969746e-06</v>
+        <v>1.762817554445165e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.259722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>65873.87075046988</v>
+        <v>77659.98479141999</v>
       </c>
     </row>
     <row r="5">
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.34168629238263</v>
+        <v>62.86458130751591</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.98444845432631</v>
+        <v>86.01409353450261</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.01891512817853</v>
+        <v>77.80502916912866</v>
       </c>
       <c r="AD5" t="n">
-        <v>53341.68629238263</v>
+        <v>62864.58130751591</v>
       </c>
       <c r="AE5" t="n">
-        <v>72984.44845432631</v>
+        <v>86014.09353450261</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.768693688882056e-06</v>
+        <v>1.761526638416687e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.2625</v>
       </c>
       <c r="AH5" t="n">
-        <v>66018.91512817853</v>
+        <v>77805.02916912865</v>
       </c>
     </row>
   </sheetData>
@@ -10097,28 +10097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.70319832743941</v>
+        <v>82.12129847182003</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.16152633833315</v>
+        <v>112.3619835050936</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.84295259659405</v>
+        <v>101.6383135004307</v>
       </c>
       <c r="AD2" t="n">
-        <v>63703.19832743941</v>
+        <v>82121.29847182003</v>
       </c>
       <c r="AE2" t="n">
-        <v>87161.52633833315</v>
+        <v>112361.9835050936</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.029066184592853e-06</v>
+        <v>1.497967106775232e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78842.95259659404</v>
+        <v>101638.3135004307</v>
       </c>
     </row>
     <row r="3">
@@ -10203,28 +10203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.27739483551953</v>
+        <v>59.44386398897507</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.7917496960503</v>
+        <v>81.3337171878801</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.22636165490137</v>
+        <v>73.57134137207684</v>
       </c>
       <c r="AD3" t="n">
-        <v>50277.39483551953</v>
+        <v>59443.86398897508</v>
       </c>
       <c r="AE3" t="n">
-        <v>68791.7496960503</v>
+        <v>81333.7171878801</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.936447906015811e-06</v>
+        <v>1.853823567921193e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.316666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>62226.36165490137</v>
+        <v>73571.34137207684</v>
       </c>
     </row>
     <row r="4">
@@ -10309,28 +10309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.47252297447088</v>
+        <v>59.63899212792642</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.05873262420933</v>
+        <v>81.60070011603912</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.46786410710988</v>
+        <v>73.81284382428534</v>
       </c>
       <c r="AD4" t="n">
-        <v>50472.52297447088</v>
+        <v>59638.99212792642</v>
       </c>
       <c r="AE4" t="n">
-        <v>69058.73262420933</v>
+        <v>81600.70011603912</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.926504995217777e-06</v>
+        <v>1.851968538584202e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.318055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>62467.86410710988</v>
+        <v>73812.84382428534</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.29987446592808</v>
+        <v>61.35203796699228</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.55899555187794</v>
+        <v>83.9445650072965</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.72950545010366</v>
+        <v>75.93301353995692</v>
       </c>
       <c r="AD2" t="n">
-        <v>52299.87446592808</v>
+        <v>61352.03796699228</v>
       </c>
       <c r="AE2" t="n">
-        <v>71558.99555187795</v>
+        <v>83944.56500729651</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.213221791079836e-06</v>
+        <v>1.77173671637496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.584722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>64729.50545010366</v>
+        <v>75933.01353995691</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.19722247154163</v>
+        <v>57.07879377201364</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.94556609692933</v>
+        <v>78.097723777501</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.65181382383582</v>
+        <v>70.64418663103802</v>
       </c>
       <c r="AD3" t="n">
-        <v>48197.22247154163</v>
+        <v>57078.79377201364</v>
       </c>
       <c r="AE3" t="n">
-        <v>65945.56609692932</v>
+        <v>78097.723777501</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.978976033162888e-06</v>
+        <v>1.918994096820526e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.386111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>59651.81382383582</v>
+        <v>70644.18663103803</v>
       </c>
     </row>
   </sheetData>
@@ -18630,28 +18630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.99218784728657</v>
+        <v>61.71098049291999</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.56029632787737</v>
+        <v>84.4356860066972</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.685068046776</v>
+        <v>76.37726264046762</v>
       </c>
       <c r="AD2" t="n">
-        <v>44992.18784728657</v>
+        <v>61710.98049291999</v>
       </c>
       <c r="AE2" t="n">
-        <v>61560.29632787737</v>
+        <v>84435.6860066972</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.375262538745381e-06</v>
+        <v>1.933741015001377e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.726388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>55685.068046776</v>
+        <v>76377.26264046763</v>
       </c>
     </row>
   </sheetData>
@@ -18927,28 +18927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0842846727567</v>
+        <v>137.9047366131312</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5681278001668</v>
+        <v>188.6873445616</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.148292445255</v>
+        <v>170.6792892210454</v>
       </c>
       <c r="AD2" t="n">
-        <v>118084.2846727567</v>
+        <v>137904.7366131312</v>
       </c>
       <c r="AE2" t="n">
-        <v>161568.1278001668</v>
+        <v>188687.3445616</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.56654539876291e-06</v>
+        <v>9.780200677791966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.838888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>146148.292445255</v>
+        <v>170679.2892210454</v>
       </c>
     </row>
     <row r="3">
@@ -19033,28 +19033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.95610725997221</v>
+        <v>77.95167408473108</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.98054396492182</v>
+        <v>106.656919467836</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.10661134794546</v>
+        <v>96.47773276777947</v>
       </c>
       <c r="AD3" t="n">
-        <v>67956.10725997221</v>
+        <v>77951.67408473109</v>
       </c>
       <c r="AE3" t="n">
-        <v>92980.54396492182</v>
+        <v>106656.919467836</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.160019780169573e-06</v>
+        <v>1.433683285912772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.619444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>84106.61134794547</v>
+        <v>96477.73276777947</v>
       </c>
     </row>
     <row r="4">
@@ -19139,28 +19139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.30200298720942</v>
+        <v>70.12697761137609</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.5078608236844</v>
+        <v>95.95082455175175</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.63342638720133</v>
+        <v>86.79341252438427</v>
       </c>
       <c r="AD4" t="n">
-        <v>60302.00298720942</v>
+        <v>70126.97761137609</v>
       </c>
       <c r="AE4" t="n">
-        <v>82507.8608236844</v>
+        <v>95950.82455175175</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.046155583344948e-06</v>
+        <v>1.589373850922043e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>74633.42638720133</v>
+        <v>86793.41252438427</v>
       </c>
     </row>
     <row r="5">
@@ -19245,28 +19245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.33501993802654</v>
+        <v>66.15999456219323</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.08005960485464</v>
+        <v>90.52302333292199</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.72364689872809</v>
+        <v>81.88363303591105</v>
       </c>
       <c r="AD5" t="n">
-        <v>56335.01993802654</v>
+        <v>66159.99456219323</v>
       </c>
       <c r="AE5" t="n">
-        <v>77080.05960485464</v>
+        <v>90523.02333292199</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.513765707646037e-06</v>
+        <v>1.671531105143813e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.245833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>69723.6468987281</v>
+        <v>81883.63303591104</v>
       </c>
     </row>
     <row r="6">
@@ -19351,28 +19351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.05725686341959</v>
+        <v>65.88223148758628</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.70001191213561</v>
+        <v>90.14297564020296</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.37987042440174</v>
+        <v>81.53985656158468</v>
       </c>
       <c r="AD6" t="n">
-        <v>56057.25686341959</v>
+        <v>65882.23148758628</v>
       </c>
       <c r="AE6" t="n">
-        <v>76700.01191213561</v>
+        <v>90142.97564020296</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.55238701110098e-06</v>
+        <v>1.678316715808395e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.2375</v>
       </c>
       <c r="AH6" t="n">
-        <v>69379.87042440174</v>
+        <v>81539.85656158469</v>
       </c>
     </row>
   </sheetData>
@@ -19648,28 +19648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.1032877213065</v>
+        <v>209.7916671839811</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.0570197395756</v>
+        <v>287.0462143961361</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.669121715389</v>
+        <v>259.6509265661456</v>
       </c>
       <c r="AD2" t="n">
-        <v>179103.2877213065</v>
+        <v>209791.6671839811</v>
       </c>
       <c r="AE2" t="n">
-        <v>245057.0197395756</v>
+        <v>287046.2143961361</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.330483812023345e-06</v>
+        <v>7.404644719070138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.755555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>221669.121715389</v>
+        <v>259650.9265661456</v>
       </c>
     </row>
     <row r="3">
@@ -19754,28 +19754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.11728711225473</v>
+        <v>101.547759802514</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.988250869082</v>
+        <v>138.9421249327231</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.3956879791537</v>
+        <v>125.6816835356784</v>
       </c>
       <c r="AD3" t="n">
-        <v>81117.28711225472</v>
+        <v>101547.7598025139</v>
       </c>
       <c r="AE3" t="n">
-        <v>110988.250869082</v>
+        <v>138942.1249327231</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.195429652464181e-06</v>
+        <v>1.230338282979647e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8625</v>
       </c>
       <c r="AH3" t="n">
-        <v>100395.6879791537</v>
+        <v>125681.6835356784</v>
       </c>
     </row>
     <row r="4">
@@ -19860,28 +19860,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.85475954299424</v>
+        <v>80.1980071699813</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.57836378117831</v>
+        <v>109.7304514962953</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.45649888700228</v>
+        <v>99.25793121317288</v>
       </c>
       <c r="AD4" t="n">
-        <v>69854.75954299424</v>
+        <v>80198.0071699813</v>
       </c>
       <c r="AE4" t="n">
-        <v>95578.36378117831</v>
+        <v>109730.4514962953</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.208732616627967e-06</v>
+        <v>1.403601797360683e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.508333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>86456.49888700228</v>
+        <v>99257.93121317288</v>
       </c>
     </row>
     <row r="5">
@@ -19966,28 +19966,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.06436955872034</v>
+        <v>75.23702498511518</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.02394086760735</v>
+        <v>102.9426168078775</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.52762089711011</v>
+        <v>93.11791794062968</v>
       </c>
       <c r="AD5" t="n">
-        <v>65064.36955872035</v>
+        <v>75237.02498511519</v>
       </c>
       <c r="AE5" t="n">
-        <v>89023.94086760735</v>
+        <v>102942.6168078775</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.720277133216357e-06</v>
+        <v>1.491070208922663e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.361111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>80527.62089711012</v>
+        <v>93117.91794062968</v>
       </c>
     </row>
     <row r="6">
@@ -20072,28 +20072,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.00281241895338</v>
+        <v>72.17546784534824</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.83498332261181</v>
+        <v>98.75365926288197</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.73845158096877</v>
+        <v>89.32874862448833</v>
       </c>
       <c r="AD6" t="n">
-        <v>62002.81241895338</v>
+        <v>72175.46784534823</v>
       </c>
       <c r="AE6" t="n">
-        <v>84834.98332261181</v>
+        <v>98753.65926288196</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.010893728147734e-06</v>
+        <v>1.540762407954977e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.284722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>76738.45158096877</v>
+        <v>89328.74862448833</v>
       </c>
     </row>
     <row r="7">
@@ -20178,28 +20178,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.03605605271961</v>
+        <v>70.20871147911446</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.14398049516494</v>
+        <v>96.06265643543509</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.30427428652641</v>
+        <v>86.89457133004593</v>
       </c>
       <c r="AD7" t="n">
-        <v>60036.05605271961</v>
+        <v>70208.71147911446</v>
       </c>
       <c r="AE7" t="n">
-        <v>82143.98049516494</v>
+        <v>96062.65643543508</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.19920141976143e-06</v>
+        <v>1.572960924674894e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.238888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>74304.2742865264</v>
+        <v>86894.57133004593</v>
       </c>
     </row>
     <row r="8">
@@ -20284,28 +20284,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.02148487481438</v>
+        <v>70.19414030120923</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.12404356672003</v>
+        <v>96.04271950699017</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.28624011055059</v>
+        <v>86.87653715407015</v>
       </c>
       <c r="AD8" t="n">
-        <v>60021.48487481438</v>
+        <v>70194.14030120923</v>
       </c>
       <c r="AE8" t="n">
-        <v>82124.04356672004</v>
+        <v>96042.71950699016</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.205577191997169e-06</v>
+        <v>1.574051110674072e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.2375</v>
       </c>
       <c r="AH8" t="n">
-        <v>74286.2401105506</v>
+        <v>86876.53715407015</v>
       </c>
     </row>
   </sheetData>
@@ -20581,28 +20581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.45076636985655</v>
+        <v>60.58878434515474</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.76545251171376</v>
+        <v>82.90024772952557</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.91625844745697</v>
+        <v>74.98836443746762</v>
       </c>
       <c r="AD2" t="n">
-        <v>52450.76636985654</v>
+        <v>60588.78434515474</v>
       </c>
       <c r="AE2" t="n">
-        <v>71765.45251171377</v>
+        <v>82900.24772952558</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.514096832466457e-06</v>
+        <v>1.824963102376425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64916.25844745697</v>
+        <v>74988.36443746762</v>
       </c>
     </row>
   </sheetData>
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.16089714194176</v>
+        <v>88.53923062557207</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.3114318018671</v>
+        <v>121.1432814170364</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.97434076677375</v>
+        <v>109.5815366642895</v>
       </c>
       <c r="AD2" t="n">
-        <v>79160.89714194176</v>
+        <v>88539.23062557208</v>
       </c>
       <c r="AE2" t="n">
-        <v>108311.4318018671</v>
+        <v>121143.2814170364</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.53530341762581e-06</v>
+        <v>1.388328817851436e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.009722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>97974.34076677375</v>
+        <v>109581.5366642895</v>
       </c>
     </row>
     <row r="3">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.53859803016342</v>
+        <v>61.83159065922211</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.88562766420493</v>
+        <v>84.60071015717666</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.02496425206131</v>
+        <v>76.52653711763821</v>
       </c>
       <c r="AD3" t="n">
-        <v>52538.59803016342</v>
+        <v>61831.59065922211</v>
       </c>
       <c r="AE3" t="n">
-        <v>71885.62766420493</v>
+        <v>84600.71015717667</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.705067124933244e-06</v>
+        <v>1.78809314263455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>65024.96425206131</v>
+        <v>76526.53711763822</v>
       </c>
     </row>
     <row r="4">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.31328309479866</v>
+        <v>60.60627572385734</v>
       </c>
       <c r="AB4" t="n">
-        <v>70.20909771255991</v>
+        <v>82.92418020553166</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.5084399659762</v>
+        <v>75.0100128315531</v>
       </c>
       <c r="AD4" t="n">
-        <v>51313.28309479866</v>
+        <v>60606.27572385735</v>
       </c>
       <c r="AE4" t="n">
-        <v>70209.09771255992</v>
+        <v>82924.18020553165</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.89727092439895e-06</v>
+        <v>1.823505395985173e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>63508.4399659762</v>
+        <v>75010.0128315531</v>
       </c>
     </row>
   </sheetData>
@@ -21387,28 +21387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.3248082260028</v>
+        <v>119.5817445072151</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.2688286329256</v>
+        <v>163.6170184089372</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.168084286247</v>
+        <v>148.001639809961</v>
       </c>
       <c r="AD2" t="n">
-        <v>100324.8082260028</v>
+        <v>119581.7445072151</v>
       </c>
       <c r="AE2" t="n">
-        <v>137268.8286329256</v>
+        <v>163617.0184089371</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.281044936487574e-06</v>
+        <v>1.122062839917537e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.476388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>124168.084286247</v>
+        <v>148001.639809961</v>
       </c>
     </row>
     <row r="3">
@@ -21493,28 +21493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.77141115111717</v>
+        <v>71.57051624659105</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.51836989925502</v>
+        <v>97.92593779688183</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.45205529836731</v>
+        <v>88.5800237334886</v>
       </c>
       <c r="AD3" t="n">
-        <v>61771.41115111717</v>
+        <v>71570.51624659105</v>
       </c>
       <c r="AE3" t="n">
-        <v>84518.36989925502</v>
+        <v>97925.93779688183</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713751026657091e-06</v>
+        <v>1.556648029455562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.505555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>76452.05529836731</v>
+        <v>88580.0237334886</v>
       </c>
     </row>
     <row r="4">
@@ -21599,28 +21599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.2615987020913</v>
+        <v>64.89011159697297</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.61135731384606</v>
+        <v>88.78551343662603</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.39511549303629</v>
+        <v>80.31194864550655</v>
       </c>
       <c r="AD4" t="n">
-        <v>55261.5987020913</v>
+        <v>64890.11159697297</v>
       </c>
       <c r="AE4" t="n">
-        <v>75611.35731384606</v>
+        <v>88785.51343662603</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.564168349847611e-06</v>
+        <v>1.708568878044146e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.283333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68395.11549303628</v>
+        <v>80311.94864550655</v>
       </c>
     </row>
     <row r="5">
@@ -21705,28 +21705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.32384654785665</v>
+        <v>63.95235944273832</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.32828344571762</v>
+        <v>87.50243956849756</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.23449639407612</v>
+        <v>79.15132954654639</v>
       </c>
       <c r="AD5" t="n">
-        <v>54323.84654785665</v>
+        <v>63952.35944273832</v>
       </c>
       <c r="AE5" t="n">
-        <v>74328.28344571762</v>
+        <v>87502.43956849756</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.678154772349577e-06</v>
+        <v>1.72893172057081e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.255555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>67234.49639407612</v>
+        <v>79151.32954654639</v>
       </c>
     </row>
   </sheetData>
